--- a/raw_data/20200818_saline/20200818_Sensor1_Test_21.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_21.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3D6C1-A656-49F0-975D-139607C545D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>18187.788758</v>
+        <v>18187.788757999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.052164</v>
+        <v>5.0521640000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>894.048000</v>
+        <v>894.048</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.912000</v>
+        <v>-198.91200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>18197.856055</v>
       </c>
       <c r="G2" s="1">
-        <v>5.054960</v>
+        <v>5.0549600000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>911.739000</v>
+        <v>911.73900000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.188000</v>
+        <v>-168.18799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>18207.935755</v>
+        <v>18207.935754999999</v>
       </c>
       <c r="L2" s="1">
-        <v>5.057760</v>
+        <v>5.05776</v>
       </c>
       <c r="M2" s="1">
-        <v>934.384000</v>
+        <v>934.38400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.064000</v>
+        <v>-119.06399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>18218.117133</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.060588</v>
+        <v>5.0605880000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>940.971000</v>
+        <v>940.971</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>18228.684436</v>
@@ -541,315 +957,315 @@
         <v>5.063523</v>
       </c>
       <c r="W2" s="1">
-        <v>947.311000</v>
+        <v>947.31100000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.884200</v>
+        <v>-87.884200000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>18239.122742</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.066423</v>
+        <v>5.0664230000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>954.247000</v>
+        <v>954.24699999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.566400</v>
+        <v>-76.566400000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>18249.407259</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.069280</v>
+        <v>5.06928</v>
       </c>
       <c r="AG2" s="1">
-        <v>958.903000</v>
+        <v>958.90300000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.599100</v>
+        <v>-74.599100000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18259.857995</v>
+        <v>18259.857994999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.072183</v>
+        <v>5.0721829999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>966.089000</v>
+        <v>966.08900000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.640300</v>
+        <v>-79.640299999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>18270.076536</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.075021</v>
+        <v>5.0750209999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>974.195000</v>
+        <v>974.19500000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.491900</v>
+        <v>-91.491900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>18281.067913</v>
+        <v>18281.067912999999</v>
       </c>
       <c r="AU2" s="1">
         <v>5.078074</v>
       </c>
       <c r="AV2" s="1">
-        <v>984.139000</v>
+        <v>984.13900000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.413000</v>
+        <v>-109.413</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>18291.826610</v>
+        <v>18291.82661</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.081063</v>
+        <v>5.0810630000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>992.415000</v>
+        <v>992.41499999999996</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.236000</v>
+        <v>-125.236</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>18302.763884</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.084101</v>
+        <v>5.0841010000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.937000</v>
+        <v>-197.93700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>18313.818884</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.087172</v>
+        <v>5.0871719999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1098.120000</v>
+        <v>1098.1199999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.933000</v>
+        <v>-315.93299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>18324.964815</v>
+        <v>18324.964814999999</v>
       </c>
       <c r="BO2" s="1">
         <v>5.090268</v>
       </c>
       <c r="BP2" s="1">
-        <v>1206.660000</v>
+        <v>1206.6600000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-502.281000</v>
+        <v>-502.28100000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>18335.669008</v>
+        <v>18335.669008000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.093241</v>
+        <v>5.0932409999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1328.810000</v>
+        <v>1328.81</v>
       </c>
       <c r="BV2" s="1">
-        <v>-707.346000</v>
+        <v>-707.346</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>18347.052690</v>
+        <v>18347.05269</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.096404</v>
+        <v>5.0964039999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1466.380000</v>
+        <v>1466.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-926.129000</v>
+        <v>-926.12900000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>18357.937396</v>
+        <v>18357.937396000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.099427</v>
+        <v>5.0994270000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.560000</v>
+        <v>1827.56</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1445.860000</v>
+        <v>-1445.86</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>18188.147364</v>
       </c>
       <c r="B3" s="1">
-        <v>5.052263</v>
+        <v>5.0522629999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>894.168000</v>
+        <v>894.16800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.903000</v>
+        <v>-198.90299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>18198.200812</v>
+        <v>18198.200811999999</v>
       </c>
       <c r="G3" s="1">
-        <v>5.055056</v>
+        <v>5.0550560000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>912.013000</v>
+        <v>912.01300000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.459000</v>
+        <v>-167.459</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>18208.316715</v>
+        <v>18208.316715000001</v>
       </c>
       <c r="L3" s="1">
-        <v>5.057866</v>
+        <v>5.0578659999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>934.448000</v>
+        <v>934.44799999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.071000</v>
+        <v>-119.071</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>18218.538235</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.060705</v>
+        <v>5.0607049999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>940.989000</v>
+        <v>940.98900000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.750000</v>
+        <v>-102.75</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>18229.100574</v>
       </c>
       <c r="V3" s="1">
-        <v>5.063639</v>
+        <v>5.0636390000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>947.391000</v>
+        <v>947.39099999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.846600</v>
+        <v>-87.846599999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>18239.233312</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.066454</v>
+        <v>5.0664540000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>954.286000</v>
+        <v>954.28599999999994</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.438100</v>
+        <v>-76.438100000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>18249.772803</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.069381</v>
+        <v>5.0693809999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>958.872000</v>
+        <v>958.87199999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.580900</v>
+        <v>-74.5809</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>18260.228469</v>
+        <v>18260.228469000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.072286</v>
+        <v>5.0722860000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>966.079000</v>
+        <v>966.07899999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.621000</v>
+        <v>-79.620999999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>18270.474327</v>
@@ -858,1465 +1274,1465 @@
         <v>5.075132</v>
       </c>
       <c r="AQ3" s="1">
-        <v>974.190000</v>
+        <v>974.19</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.458000</v>
+        <v>-91.457999999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>18281.804965</v>
+        <v>18281.804964999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.078279</v>
+        <v>5.0782790000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>984.106000</v>
+        <v>984.10599999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.434000</v>
+        <v>-109.434</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>18292.246218</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.081180</v>
+        <v>5.0811799999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>992.457000</v>
+        <v>992.45699999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.246000</v>
+        <v>-125.246</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>18303.163660</v>
+        <v>18303.163659999998</v>
       </c>
       <c r="BE3" s="1">
         <v>5.084212</v>
       </c>
       <c r="BF3" s="1">
-        <v>1031.220000</v>
+        <v>1031.22</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.915000</v>
+        <v>-197.91499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>18314.196205</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.087277</v>
+        <v>5.0872770000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1098.080000</v>
+        <v>1098.08</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.975000</v>
+        <v>-315.97500000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>18325.372526</v>
+        <v>18325.372525999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.090381</v>
+        <v>5.0903809999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-502.304000</v>
+        <v>-502.30399999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>18336.418463</v>
+        <v>18336.418463000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.093450</v>
+        <v>5.0934499999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1328.820000</v>
+        <v>1328.82</v>
       </c>
       <c r="BV3" s="1">
-        <v>-707.389000</v>
+        <v>-707.38900000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>18347.232564</v>
+        <v>18347.232564000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.096453</v>
+        <v>5.0964530000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA3" s="1">
-        <v>-926.102000</v>
+        <v>-926.10199999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>18358.284564</v>
+        <v>18358.284564000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.099523</v>
+        <v>5.0995229999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.400000</v>
+        <v>1827.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1445.820000</v>
+        <v>-1445.82</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>18188.492579</v>
+        <v>18188.492579000002</v>
       </c>
       <c r="B4" s="1">
         <v>5.052359</v>
       </c>
       <c r="C4" s="1">
-        <v>894.174000</v>
+        <v>894.17399999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.814000</v>
+        <v>-198.81399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>18198.621381</v>
+        <v>18198.621381000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.055173</v>
+        <v>5.0551729999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>912.174000</v>
+        <v>912.17399999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.972000</v>
+        <v>-167.97200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>18208.739801</v>
       </c>
       <c r="L4" s="1">
-        <v>5.057983</v>
+        <v>5.0579830000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>934.546000</v>
+        <v>934.54600000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.001000</v>
+        <v>-119.001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>18218.882987</v>
+        <v>18218.882987000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.060801</v>
+        <v>5.0608009999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>940.977000</v>
+        <v>940.97699999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.711000</v>
+        <v>-102.711</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>18229.444766</v>
+        <v>18229.444766000001</v>
       </c>
       <c r="V4" s="1">
-        <v>5.063735</v>
+        <v>5.0637350000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>947.354000</v>
+        <v>947.35400000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.895100</v>
+        <v>-87.895099999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18239.569140</v>
+        <v>18239.56914</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.066547</v>
+        <v>5.0665469999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>954.291000</v>
+        <v>954.29100000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.606700</v>
+        <v>-76.606700000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>18250.112562</v>
+        <v>18250.112561999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.069476</v>
+        <v>5.0694759999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>958.906000</v>
+        <v>958.90599999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.617600</v>
+        <v>-74.617599999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>18260.821683</v>
+        <v>18260.821682999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.072450</v>
+        <v>5.0724499999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>966.067000</v>
+        <v>966.06700000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.621900</v>
+        <v>-79.621899999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>18271.195541</v>
+        <v>18271.195541000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.075332</v>
+        <v>5.0753320000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>974.204000</v>
+        <v>974.20399999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.479400</v>
+        <v>-91.479399999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>18282.168999</v>
+        <v>18282.168999000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.078380</v>
+        <v>5.0783800000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.416000</v>
+        <v>-109.416</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>18292.600889</v>
+        <v>18292.600889000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.081278</v>
+        <v>5.0812780000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>992.433000</v>
+        <v>992.43299999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.252000</v>
+        <v>-125.252</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>18303.522763</v>
+        <v>18303.522763000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.084312</v>
+        <v>5.0843119999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1031.260000</v>
+        <v>1031.26</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.924000</v>
+        <v>-197.92400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>18314.883628</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.087468</v>
+        <v>5.0874680000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1098.080000</v>
+        <v>1098.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.959000</v>
+        <v>-315.959</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>18326.096190</v>
+        <v>18326.09619</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.090582</v>
+        <v>5.0905820000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-502.332000</v>
+        <v>-502.33199999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>18336.538464</v>
+        <v>18336.538464000001</v>
       </c>
       <c r="BT4" s="1">
         <v>5.093483</v>
       </c>
       <c r="BU4" s="1">
-        <v>1328.790000</v>
+        <v>1328.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-707.330000</v>
+        <v>-707.33</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>18347.681598</v>
+        <v>18347.681597999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.096578</v>
+        <v>5.0965780000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1466.400000</v>
+        <v>1466.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-926.020000</v>
+        <v>-926.02</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>18358.805860</v>
+        <v>18358.80586</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.099668</v>
+        <v>5.0996680000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.930000</v>
+        <v>1827.93</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1447.140000</v>
+        <v>-1447.14</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>18188.925601</v>
+        <v>18188.925600999999</v>
       </c>
       <c r="B5" s="1">
-        <v>5.052479</v>
+        <v>5.0524789999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>894.090000</v>
+        <v>894.09</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.615000</v>
+        <v>-198.61500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>18198.889221</v>
+        <v>18198.889221000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.055247</v>
+        <v>5.0552469999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>911.794000</v>
+        <v>911.79399999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.786000</v>
+        <v>-167.786</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18209.038890</v>
+        <v>18209.03889</v>
       </c>
       <c r="L5" s="1">
-        <v>5.058066</v>
+        <v>5.0580660000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>934.445000</v>
+        <v>934.44500000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.018000</v>
+        <v>-119.018</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>18219.231146</v>
+        <v>18219.231145999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.060898</v>
+        <v>5.0608979999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>941.014000</v>
+        <v>941.01400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.755000</v>
+        <v>-102.755</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>18229.789485</v>
+        <v>18229.789485000001</v>
       </c>
       <c r="V5" s="1">
-        <v>5.063830</v>
+        <v>5.0638300000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>947.281000</v>
+        <v>947.28099999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.912000</v>
+        <v>-87.912000000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>18239.920767</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.066645</v>
+        <v>5.0666450000000003</v>
       </c>
       <c r="AB5" s="1">
-        <v>954.285000</v>
+        <v>954.28499999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.535700</v>
+        <v>-76.535700000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>18250.801009</v>
+        <v>18250.801008999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.069667</v>
+        <v>5.0696669999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>958.919000</v>
+        <v>958.91899999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.622400</v>
+        <v>-74.622399999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>18260.933283</v>
+        <v>18260.933282999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.072481</v>
+        <v>5.0724809999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>966.083000</v>
+        <v>966.08299999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.628400</v>
+        <v>-79.628399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>18271.553621</v>
+        <v>18271.553620999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.075432</v>
+        <v>5.0754320000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>974.192000</v>
+        <v>974.19200000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.487500</v>
+        <v>-91.487499999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>18282.534583</v>
+        <v>18282.534583000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.078482</v>
+        <v>5.0784820000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>984.085000</v>
+        <v>984.08500000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.431000</v>
+        <v>-109.431</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>18292.960458</v>
+        <v>18292.960458000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>5.081378</v>
       </c>
       <c r="BA5" s="1">
-        <v>992.430000</v>
+        <v>992.43</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.265000</v>
+        <v>-125.265</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>18304.196330</v>
+        <v>18304.196329999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.084499</v>
+        <v>5.0844990000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1031.260000</v>
+        <v>1031.26</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.946000</v>
+        <v>-197.946</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>18315.352843</v>
+        <v>18315.352843000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.087598</v>
+        <v>5.0875979999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1098.070000</v>
+        <v>1098.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.941000</v>
+        <v>-315.94099999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>18326.217213</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.090616</v>
+        <v>5.0906159999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-502.318000</v>
+        <v>-502.31799999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>18336.953151</v>
+        <v>18336.953151000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.093598</v>
+        <v>5.0935980000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1328.760000</v>
+        <v>1328.76</v>
       </c>
       <c r="BV5" s="1">
-        <v>-707.319000</v>
+        <v>-707.31899999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>18348.129473</v>
+        <v>18348.129473000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.096703</v>
+        <v>5.0967029999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1466.310000</v>
+        <v>1466.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-926.070000</v>
+        <v>-926.07</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>18359.319715</v>
+        <v>18359.319715000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.099811</v>
+        <v>5.0998109999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.140000</v>
+        <v>1829.14</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1446.280000</v>
+        <v>-1446.28</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>18189.193922</v>
+        <v>18189.193921999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.052554</v>
+        <v>5.0525539999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>894.079000</v>
+        <v>894.07899999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.849000</v>
+        <v>-198.84899999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>18199.234932</v>
+        <v>18199.234931999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.055343</v>
+        <v>5.0553429999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>911.524000</v>
+        <v>911.524</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.176000</v>
+        <v>-168.17599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>18209.387047</v>
       </c>
       <c r="L6" s="1">
-        <v>5.058163</v>
+        <v>5.0581630000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>934.507000</v>
+        <v>934.50699999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.069000</v>
+        <v>-119.069</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>18219.582314</v>
+        <v>18219.582313999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.060995</v>
+        <v>5.0609950000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>941.023000</v>
+        <v>941.02300000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>18230.475452</v>
+        <v>18230.475451999999</v>
       </c>
       <c r="V6" s="1">
-        <v>5.064021</v>
+        <v>5.0640210000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>947.304000</v>
+        <v>947.30399999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.845000</v>
+        <v>-87.844999999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18240.616159</v>
+        <v>18240.616159000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.066838</v>
+        <v>5.0668379999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>954.277000</v>
+        <v>954.27700000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.522700</v>
+        <v>-76.5227</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>18251.147712</v>
+        <v>18251.147712000002</v>
       </c>
       <c r="AF6" s="1">
         <v>5.069763</v>
       </c>
       <c r="AG6" s="1">
-        <v>958.883000</v>
+        <v>958.88300000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.571600</v>
+        <v>-74.571600000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>18261.279523</v>
+        <v>18261.279523000001</v>
       </c>
       <c r="AK6" s="1">
         <v>5.072578</v>
       </c>
       <c r="AL6" s="1">
-        <v>966.087000</v>
+        <v>966.08699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.641200</v>
+        <v>-79.641199999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>18271.914246</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.075532</v>
+        <v>5.0755319999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>974.194000</v>
+        <v>974.19399999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.473100</v>
+        <v>-91.473100000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>18283.195260</v>
+        <v>18283.19526</v>
       </c>
       <c r="AU6" s="1">
         <v>5.078665</v>
       </c>
       <c r="AV6" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.426000</v>
+        <v>-109.426</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>18293.637992</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.081566</v>
+        <v>5.0815659999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>992.424000</v>
+        <v>992.42399999999998</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.247000</v>
+        <v>-125.247</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>18304.644714</v>
+        <v>18304.644713999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.084624</v>
+        <v>5.0846239999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.918000</v>
+        <v>-197.91800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>18315.754634</v>
+        <v>18315.754634000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.087710</v>
+        <v>5.0877100000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1098.100000</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.962000</v>
+        <v>-315.96199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>18326.605118</v>
+        <v>18326.605117999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.090724</v>
+        <v>5.0907239999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-502.323000</v>
+        <v>-502.32299999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>18337.366782</v>
+        <v>18337.366782000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.093713</v>
+        <v>5.0937130000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1328.790000</v>
+        <v>1328.79</v>
       </c>
       <c r="BV6" s="1">
-        <v>-707.295000</v>
+        <v>-707.29499999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>18348.548607</v>
+        <v>18348.548607000001</v>
       </c>
       <c r="BY6" s="1">
         <v>5.096819</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1466.300000</v>
+        <v>1466.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-926.170000</v>
+        <v>-926.17</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>18359.839024</v>
+        <v>18359.839024000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.099955</v>
+        <v>5.0999549999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.900000</v>
+        <v>1827.9</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1445.400000</v>
+        <v>-1445.4</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>18189.539172</v>
+        <v>18189.539172000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.052650</v>
+        <v>5.0526499999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>894.200000</v>
+        <v>894.2</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.721000</v>
+        <v>-198.721</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>18199.580184</v>
+        <v>18199.580183999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5.055439</v>
+        <v>5.0554389999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>911.866000</v>
+        <v>911.86599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.751000</v>
+        <v>-167.751</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>18209.725815</v>
+        <v>18209.725815000002</v>
       </c>
       <c r="L7" s="1">
-        <v>5.058257</v>
+        <v>5.0582570000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>934.276000</v>
+        <v>934.27599999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.904000</v>
+        <v>-118.904</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>18220.277101</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.061188</v>
+        <v>5.0611879999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>940.991000</v>
+        <v>940.99099999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.773000</v>
+        <v>-102.773</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>18230.819180</v>
+        <v>18230.819179999999</v>
       </c>
       <c r="V7" s="1">
-        <v>5.064116</v>
+        <v>5.0641160000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>947.331000</v>
+        <v>947.33100000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.892400</v>
+        <v>-87.892399999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>18240.961870</v>
+        <v>18240.961869999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.066934</v>
+        <v>5.0669339999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>954.292000</v>
+        <v>954.29200000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.603800</v>
+        <v>-76.603800000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18251.491936</v>
+        <v>18251.491935999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.069859</v>
+        <v>5.0698590000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>958.914000</v>
+        <v>958.91399999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.546100</v>
+        <v>-74.546099999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>18261.935203</v>
+        <v>18261.935203000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.072760</v>
+        <v>5.0727599999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>966.072000</v>
+        <v>966.072</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.611800</v>
+        <v>-79.611800000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>18272.580869</v>
+        <v>18272.580869000001</v>
       </c>
       <c r="AP7" s="1">
         <v>5.075717</v>
       </c>
       <c r="AQ7" s="1">
-        <v>974.198000</v>
+        <v>974.19799999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.495700</v>
+        <v>-91.495699999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>18283.302358</v>
+        <v>18283.302358000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.078695</v>
+        <v>5.0786949999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>984.105000</v>
+        <v>984.10500000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.424000</v>
+        <v>-109.42400000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>18294.039753</v>
+        <v>18294.039753000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.081678</v>
+        <v>5.0816780000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>992.439000</v>
+        <v>992.43899999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.262000</v>
+        <v>-125.262</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>18305.002975</v>
+        <v>18305.002974999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.084723</v>
+        <v>5.0847230000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.933000</v>
+        <v>-197.93299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>18316.127098</v>
+        <v>18316.127098000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.087813</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1098.070000</v>
+        <v>1098.07</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.931000</v>
+        <v>-315.93099999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>18327.070828</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.090853</v>
+        <v>5.0908530000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-502.317000</v>
+        <v>-502.31700000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>18337.803758</v>
+        <v>18337.803757999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.093834</v>
+        <v>5.0938340000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1328.760000</v>
+        <v>1328.76</v>
       </c>
       <c r="BV7" s="1">
-        <v>-707.298000</v>
+        <v>-707.298</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>18348.975151</v>
+        <v>18348.975150999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.096938</v>
+        <v>5.0969379999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA7" s="1">
-        <v>-926.104000</v>
+        <v>-926.10400000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>18360.358336</v>
+        <v>18360.358336000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.100100</v>
+        <v>5.1001000000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1828.320000</v>
+        <v>1828.32</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1445.660000</v>
+        <v>-1445.66</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>18189.883361</v>
       </c>
       <c r="B8" s="1">
-        <v>5.052745</v>
+        <v>5.0527449999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>894.090000</v>
+        <v>894.09</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.860000</v>
+        <v>-198.86</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>18200.273091</v>
+        <v>18200.273090999999</v>
       </c>
       <c r="G8" s="1">
         <v>5.055631</v>
       </c>
       <c r="H8" s="1">
-        <v>911.750000</v>
+        <v>911.75</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.431000</v>
+        <v>-168.43100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>18210.420214</v>
+        <v>18210.420214000002</v>
       </c>
       <c r="L8" s="1">
-        <v>5.058450</v>
+        <v>5.0584499999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>934.401000</v>
+        <v>934.40099999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.014000</v>
+        <v>-119.014</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>18220.625909</v>
+        <v>18220.625908999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.061285</v>
+        <v>5.0612849999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>940.964000</v>
+        <v>940.96400000000006</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>18231.164427</v>
       </c>
       <c r="V8" s="1">
-        <v>5.064212</v>
+        <v>5.0642120000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>947.333000</v>
+        <v>947.33299999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.830700</v>
+        <v>-87.830699999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>18241.312542</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.067031</v>
+        <v>5.0670310000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>954.262000</v>
+        <v>954.26199999999994</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.576600</v>
+        <v>-76.576599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>18252.148180</v>
+        <v>18252.14818</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.070041</v>
+        <v>5.0700409999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>958.904000</v>
+        <v>958.904</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.561700</v>
+        <v>-74.561700000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>18262.324067</v>
+        <v>18262.324067000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.072868</v>
+        <v>5.0728679999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>966.083000</v>
+        <v>966.08299999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.635200</v>
+        <v>-79.635199999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>18273.029715</v>
+        <v>18273.029715000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.075842</v>
+        <v>5.0758419999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>974.198000</v>
+        <v>974.19799999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.473800</v>
+        <v>-91.473799999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>18283.658485</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.078794</v>
+        <v>5.0787940000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.417000</v>
+        <v>-109.417</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>18294.420184</v>
+        <v>18294.420183999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.081783</v>
+        <v>5.0817829999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>992.437000</v>
+        <v>992.43700000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.249000</v>
+        <v>-125.249</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>18305.364440</v>
+        <v>18305.364440000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.084823</v>
+        <v>5.0848230000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.928000</v>
+        <v>-197.928</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>18316.547211</v>
+        <v>18316.547211000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.087930</v>
+        <v>5.0879300000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1098.120000</v>
+        <v>1098.1199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.953000</v>
+        <v>-315.95299999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>18327.821275</v>
+        <v>18327.821274999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.091061</v>
+        <v>5.0910609999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-502.340000</v>
+        <v>-502.34</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>18338.235310</v>
+        <v>18338.23531</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.093954</v>
+        <v>5.0939540000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1328.800000</v>
+        <v>1328.8</v>
       </c>
       <c r="BV8" s="1">
-        <v>-707.282000</v>
+        <v>-707.28200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>18349.419566</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.097061</v>
+        <v>5.0970610000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1466.560000</v>
+        <v>1466.56</v>
       </c>
       <c r="CA8" s="1">
-        <v>-926.122000</v>
+        <v>-926.12199999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>18360.910880</v>
+        <v>18360.910879999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.100253</v>
+        <v>5.1002530000000004</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.040000</v>
+        <v>1829.04</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1446.380000</v>
+        <v>-1446.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>18190.561888</v>
       </c>
       <c r="B9" s="1">
-        <v>5.052934</v>
+        <v>5.0529339999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>894.152000</v>
+        <v>894.15200000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.942000</v>
+        <v>-198.94200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>18200.617316</v>
       </c>
       <c r="G9" s="1">
-        <v>5.055727</v>
+        <v>5.0557270000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>911.926000</v>
+        <v>911.92600000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.823000</v>
+        <v>-167.82300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>18210.765431</v>
       </c>
       <c r="L9" s="1">
-        <v>5.058546</v>
+        <v>5.0585459999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>934.295000</v>
+        <v>934.29499999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.939000</v>
+        <v>-118.93899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>18220.974616</v>
@@ -2325,450 +2741,450 @@
         <v>5.061382</v>
       </c>
       <c r="R9" s="1">
-        <v>940.967000</v>
+        <v>940.96699999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>18231.811209</v>
       </c>
       <c r="V9" s="1">
-        <v>5.064392</v>
+        <v>5.0643919999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>947.262000</v>
+        <v>947.26199999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.924700</v>
+        <v>-87.924700000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>18241.968254</v>
+        <v>18241.968253999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.067213</v>
+        <v>5.0672129999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>954.332000</v>
+        <v>954.33199999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.553800</v>
+        <v>-76.553799999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>18252.522622</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.070145</v>
+        <v>5.0701450000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>958.907000</v>
+        <v>958.90700000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.576300</v>
+        <v>-74.576300000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18262.674774</v>
+        <v>18262.674773999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.072965</v>
+        <v>5.0729649999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>966.100000</v>
+        <v>966.1</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.634200</v>
+        <v>-79.634200000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>18273.390307</v>
+        <v>18273.390307000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.075942</v>
+        <v>5.0759420000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>974.210000</v>
+        <v>974.21</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.487600</v>
+        <v>-91.4876</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>18284.023045</v>
+        <v>18284.023045000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.078895</v>
+        <v>5.0788950000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>984.107000</v>
+        <v>984.10699999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.437000</v>
+        <v>-109.437</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>18294.834343</v>
+        <v>18294.834342999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.081898</v>
+        <v>5.0818979999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>992.406000</v>
+        <v>992.40599999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.251000</v>
+        <v>-125.251</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>18305.787992</v>
+        <v>18305.787992000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.084941</v>
+        <v>5.0849409999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1031.250000</v>
+        <v>1031.25</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.924000</v>
+        <v>-197.92400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>18316.885979</v>
+        <v>18316.885978999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.088024</v>
+        <v>5.0880239999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1098.060000</v>
+        <v>1098.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.963000</v>
+        <v>-315.96300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>18328.220058</v>
+        <v>18328.220057999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.091172</v>
+        <v>5.0911720000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-502.314000</v>
+        <v>-502.31400000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>18338.644014</v>
+        <v>18338.644014000001</v>
       </c>
       <c r="BT9" s="1">
         <v>5.094068</v>
       </c>
       <c r="BU9" s="1">
-        <v>1328.830000</v>
+        <v>1328.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-707.302000</v>
+        <v>-707.30200000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>18349.851125</v>
+        <v>18349.851125000001</v>
       </c>
       <c r="BY9" s="1">
         <v>5.097181</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-926.093000</v>
+        <v>-926.09299999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>18361.456515</v>
+        <v>18361.456515000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.100405</v>
+        <v>5.1004050000000003</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.790000</v>
+        <v>1827.79</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1445.560000</v>
+        <v>-1445.56</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>18190.909584</v>
+        <v>18190.909584000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.053030</v>
+        <v>5.0530299999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>894.221000</v>
+        <v>894.221</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.738000</v>
+        <v>-198.738</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>18200.960020</v>
+        <v>18200.960019999999</v>
       </c>
       <c r="G10" s="1">
         <v>5.055822</v>
       </c>
       <c r="H10" s="1">
-        <v>911.623000</v>
+        <v>911.62300000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.128000</v>
+        <v>-168.12799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>18211.413205</v>
+        <v>18211.413205000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.058726</v>
+        <v>5.0587260000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>934.451000</v>
+        <v>934.45100000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.008000</v>
+        <v>-119.008</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>18221.628847</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.061564</v>
+        <v>5.0615639999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>941.045000</v>
+        <v>941.04499999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>18232.196569</v>
       </c>
       <c r="V10" s="1">
-        <v>5.064499</v>
+        <v>5.0644989999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>947.374000</v>
+        <v>947.37400000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.920800</v>
+        <v>-87.9208</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18242.361581</v>
+        <v>18242.361581000001</v>
       </c>
       <c r="AA10" s="1">
         <v>5.067323</v>
       </c>
       <c r="AB10" s="1">
-        <v>954.382000</v>
+        <v>954.38199999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.524300</v>
+        <v>-76.524299999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18252.866351</v>
+        <v>18252.866351000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.070241</v>
+        <v>5.0702410000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>958.896000</v>
+        <v>958.89599999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.565900</v>
+        <v>-74.565899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>18263.022929</v>
+        <v>18263.022928999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.073062</v>
+        <v>5.0730620000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>966.097000</v>
+        <v>966.09699999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.633600</v>
+        <v>-79.633600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>18273.748953</v>
+        <v>18273.748952999998</v>
       </c>
       <c r="AP10" s="1">
         <v>5.076041</v>
       </c>
       <c r="AQ10" s="1">
-        <v>974.210000</v>
+        <v>974.21</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.466700</v>
+        <v>-91.466700000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>18284.454723</v>
+        <v>18284.454722999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.079015</v>
+        <v>5.0790150000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>984.122000</v>
+        <v>984.12199999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.435000</v>
+        <v>-109.435</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>18295.137124</v>
+        <v>18295.137124000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.081983</v>
+        <v>5.0819830000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>992.415000</v>
+        <v>992.41499999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.248000</v>
+        <v>-125.248</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>18306.086106</v>
+        <v>18306.086105999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.085024</v>
+        <v>5.0850239999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1031.260000</v>
+        <v>1031.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.914000</v>
+        <v>-197.91399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>18317.272361</v>
+        <v>18317.272360999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.088131</v>
+        <v>5.0881309999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1098.120000</v>
+        <v>1098.1199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.930000</v>
+        <v>-315.93</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>18328.630746</v>
+        <v>18328.630745999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.091286</v>
+        <v>5.0912860000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-502.348000</v>
+        <v>-502.34800000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>18339.075037</v>
+        <v>18339.075036999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.094188</v>
+        <v>5.0941879999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1328.850000</v>
+        <v>1328.85</v>
       </c>
       <c r="BV10" s="1">
-        <v>-707.269000</v>
+        <v>-707.26900000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>18350.273677</v>
+        <v>18350.273677000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.097298</v>
+        <v>5.0972980000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1466.320000</v>
+        <v>1466.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-926.153000</v>
+        <v>-926.15300000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>18361.956478</v>
@@ -2777,966 +3193,966 @@
         <v>5.100543</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.130000</v>
+        <v>1827.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1446.920000</v>
+        <v>-1446.92</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>18191.249343</v>
+        <v>18191.249342999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.053125</v>
+        <v>5.0531249999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>894.270000</v>
+        <v>894.27</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.022000</v>
+        <v>-199.02199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>18201.602337</v>
       </c>
       <c r="G11" s="1">
-        <v>5.056001</v>
+        <v>5.0560010000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>911.413000</v>
+        <v>911.41300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.577000</v>
+        <v>-167.577</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>18211.802564</v>
+        <v>18211.802564000001</v>
       </c>
       <c r="L11" s="1">
-        <v>5.058834</v>
+        <v>5.0588340000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>934.452000</v>
+        <v>934.452</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.036000</v>
+        <v>-119.036</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>18222.018168</v>
+        <v>18222.018167999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.061672</v>
+        <v>5.0616719999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>941.006000</v>
+        <v>941.00599999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.797000</v>
+        <v>-102.797</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>18232.537850</v>
+        <v>18232.537850000001</v>
       </c>
       <c r="V11" s="1">
-        <v>5.064594</v>
+        <v>5.0645939999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>947.342000</v>
+        <v>947.34199999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.866800</v>
+        <v>-87.866799999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18242.709810</v>
+        <v>18242.70981</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.067419</v>
+        <v>5.0674190000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>954.258000</v>
+        <v>954.25800000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.660400</v>
+        <v>-76.660399999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>18253.211565</v>
+        <v>18253.211565000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.070337</v>
+        <v>5.0703370000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>958.895000</v>
+        <v>958.89499999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.564200</v>
+        <v>-74.5642</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>18263.429680</v>
+        <v>18263.429680000001</v>
       </c>
       <c r="AK11" s="1">
         <v>5.073175</v>
       </c>
       <c r="AL11" s="1">
-        <v>966.077000</v>
+        <v>966.077</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.630400</v>
+        <v>-79.630399999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>18274.170514</v>
+        <v>18274.170514000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.076158</v>
+        <v>5.0761580000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>974.190000</v>
+        <v>974.19</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.473000</v>
+        <v>-91.472999999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>18284.754667</v>
+        <v>18284.754667000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.079099</v>
+        <v>5.0790990000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>984.140000</v>
+        <v>984.14</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.455000</v>
+        <v>-109.455</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>18295.493557</v>
+        <v>18295.493557000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.082082</v>
+        <v>5.0820819999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>992.427000</v>
+        <v>992.42700000000002</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.248000</v>
+        <v>-125.248</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>18306.446679</v>
+        <v>18306.446679000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.085124</v>
+        <v>5.0851240000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.942000</v>
+        <v>-197.94200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>18317.648824</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.088236</v>
+        <v>5.0882360000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1098.130000</v>
+        <v>1098.1300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.930000</v>
+        <v>-315.93</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>18329.040943</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.091400</v>
+        <v>5.0914000000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-502.373000</v>
+        <v>-502.37299999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>18339.504576</v>
+        <v>18339.504575999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.094307</v>
+        <v>5.0943069999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1328.780000</v>
+        <v>1328.78</v>
       </c>
       <c r="BV11" s="1">
-        <v>-707.249000</v>
+        <v>-707.24900000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>18350.695774</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.097415</v>
+        <v>5.0974149999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1466.460000</v>
+        <v>1466.46</v>
       </c>
       <c r="CA11" s="1">
-        <v>-926.127000</v>
+        <v>-926.12699999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>18362.476786</v>
+        <v>18362.476785999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.100688</v>
+        <v>5.1006879999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.570000</v>
+        <v>1828.57</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1447.300000</v>
+        <v>-1447.3</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>18191.898111</v>
+        <v>18191.898110999999</v>
       </c>
       <c r="B12" s="1">
-        <v>5.053305</v>
+        <v>5.0533049999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>894.085000</v>
+        <v>894.08500000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.861000</v>
+        <v>-198.86099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>18201.997681</v>
+        <v>18201.997681000001</v>
       </c>
       <c r="G12" s="1">
-        <v>5.056110</v>
+        <v>5.0561100000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>911.684000</v>
+        <v>911.68399999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.101000</v>
+        <v>-168.101</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>18212.147284</v>
+        <v>18212.147283999999</v>
       </c>
       <c r="L12" s="1">
-        <v>5.058930</v>
+        <v>5.0589300000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>934.334000</v>
+        <v>934.33399999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.863000</v>
+        <v>-118.863</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>18222.368870</v>
+        <v>18222.368869999998</v>
       </c>
       <c r="Q12" s="1">
         <v>5.061769</v>
       </c>
       <c r="R12" s="1">
-        <v>941.000000</v>
+        <v>941</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.786000</v>
+        <v>-102.786</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>18232.879561</v>
+        <v>18232.879561000002</v>
       </c>
       <c r="V12" s="1">
-        <v>5.064689</v>
+        <v>5.0646890000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>947.305000</v>
+        <v>947.30499999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.881100</v>
+        <v>-87.881100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>18243.053995</v>
+        <v>18243.053994999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.067515</v>
+        <v>5.0675150000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>954.292000</v>
+        <v>954.29200000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.532800</v>
+        <v>-76.532799999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>18253.625229</v>
+        <v>18253.625229000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.070451</v>
+        <v>5.0704510000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>958.966000</v>
+        <v>958.96600000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.613800</v>
+        <v>-74.613799999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>18263.721296</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.073256</v>
+        <v>5.0732559999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>966.060000</v>
+        <v>966.06</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.640100</v>
+        <v>-79.640100000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>18274.472290</v>
+        <v>18274.472290000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.076242</v>
+        <v>5.0762419999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>974.202000</v>
+        <v>974.202</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.469300</v>
+        <v>-91.469300000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>18285.118707</v>
+        <v>18285.118707000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.079200</v>
+        <v>5.0792000000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>984.141000</v>
+        <v>984.14099999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.437000</v>
+        <v>-109.437</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>18295.852133</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.082181</v>
+        <v>5.0821810000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>992.420000</v>
+        <v>992.42</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.256000</v>
+        <v>-125.256</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>18306.809288</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.085225</v>
+        <v>5.0852250000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1031.260000</v>
+        <v>1031.26</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.923000</v>
+        <v>-197.923</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>18318.402775</v>
+        <v>18318.402774999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.088445</v>
+        <v>5.0884450000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1098.100000</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.960000</v>
+        <v>-315.95999999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>18329.450137</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.091514</v>
+        <v>5.0915140000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-502.352000</v>
+        <v>-502.35199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>18339.914235</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.094421</v>
+        <v>5.0944209999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1328.760000</v>
+        <v>1328.76</v>
       </c>
       <c r="BV12" s="1">
-        <v>-707.205000</v>
+        <v>-707.20500000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>18351.123324</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.097534</v>
+        <v>5.0975339999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1466.460000</v>
+        <v>1466.46</v>
       </c>
       <c r="CA12" s="1">
-        <v>-926.069000</v>
+        <v>-926.06899999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>18363.297799</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.100916</v>
+        <v>5.1009159999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.790000</v>
+        <v>1828.79</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1446.060000</v>
+        <v>-1446.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>18192.273086</v>
+        <v>18192.273086000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.053409</v>
+        <v>5.0534090000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>894.029000</v>
+        <v>894.029</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.776000</v>
+        <v>-198.77600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>18202.343361</v>
+        <v>18202.343360999999</v>
       </c>
       <c r="G13" s="1">
-        <v>5.056206</v>
+        <v>5.0562060000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>911.837000</v>
+        <v>911.83699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.482000</v>
+        <v>-168.482</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>18212.496467</v>
+        <v>18212.496467000001</v>
       </c>
       <c r="L13" s="1">
-        <v>5.059027</v>
+        <v>5.0590270000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>934.560000</v>
+        <v>934.56</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.965000</v>
+        <v>-118.965</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>18222.719015</v>
+        <v>18222.719014999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.061866</v>
+        <v>5.0618660000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>940.981000</v>
+        <v>940.98099999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>18233.294748</v>
       </c>
       <c r="V13" s="1">
-        <v>5.064804</v>
+        <v>5.0648039999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>947.410000</v>
+        <v>947.41</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.888400</v>
+        <v>-87.888400000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>18243.515274</v>
+        <v>18243.515274000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.067643</v>
+        <v>5.0676430000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>954.308000</v>
+        <v>954.30799999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.647600</v>
+        <v>-76.647599999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>18253.899022</v>
+        <v>18253.899022000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.070528</v>
+        <v>5.0705280000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>958.952000</v>
+        <v>958.952</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.591900</v>
+        <v>-74.591899999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>18264.069487</v>
+        <v>18264.069487000001</v>
       </c>
       <c r="AK13" s="1">
         <v>5.073353</v>
       </c>
       <c r="AL13" s="1">
-        <v>966.087000</v>
+        <v>966.08699999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.616900</v>
+        <v>-79.616900000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>18274.832673</v>
+        <v>18274.832673000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.076342</v>
+        <v>5.0763420000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>974.193000</v>
+        <v>974.19299999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.470500</v>
+        <v>-91.470500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>18285.483763</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.079301</v>
+        <v>5.0793010000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>984.110000</v>
+        <v>984.11</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.421000</v>
+        <v>-109.42100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>18296.569348</v>
+        <v>18296.569348000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.082380</v>
+        <v>5.0823799999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>992.426000</v>
+        <v>992.42600000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.237000</v>
+        <v>-125.23699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>18307.533942</v>
+        <v>18307.533941999998</v>
       </c>
       <c r="BE13" s="1">
         <v>5.085426</v>
       </c>
       <c r="BF13" s="1">
-        <v>1031.250000</v>
+        <v>1031.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.925000</v>
+        <v>-197.92500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>18318.775239</v>
+        <v>18318.775238999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.088549</v>
+        <v>5.0885490000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1098.120000</v>
+        <v>1098.1199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.927000</v>
+        <v>-315.92700000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>18329.844952</v>
+        <v>18329.844951999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.091624</v>
+        <v>5.0916240000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-502.288000</v>
+        <v>-502.28800000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>18340.346773</v>
+        <v>18340.346773000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.094541</v>
+        <v>5.0945410000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1328.830000</v>
+        <v>1328.83</v>
       </c>
       <c r="BV13" s="1">
-        <v>-707.189000</v>
+        <v>-707.18899999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>18351.847520</v>
+        <v>18351.847519999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.097735</v>
+        <v>5.0977350000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA13" s="1">
-        <v>-926.131000</v>
+        <v>-926.13099999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>18363.512893</v>
+        <v>18363.512892999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.100976</v>
+        <v>5.1009760000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.740000</v>
+        <v>1827.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1445.990000</v>
+        <v>-1445.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>18192.617311</v>
+        <v>18192.617311000002</v>
       </c>
       <c r="B14" s="1">
-        <v>5.053505</v>
+        <v>5.0535050000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>894.078000</v>
+        <v>894.07799999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.761000</v>
+        <v>-198.761</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18202.685106</v>
+        <v>18202.685106000001</v>
       </c>
       <c r="G14" s="1">
-        <v>5.056301</v>
+        <v>5.0563010000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>911.587000</v>
+        <v>911.58699999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.897000</v>
+        <v>-167.89699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>18212.915091</v>
+        <v>18212.915090999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.059143</v>
+        <v>5.0591429999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>934.396000</v>
+        <v>934.39599999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.018000</v>
+        <v>-119.018</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>18223.133669</v>
+        <v>18223.133668999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.061982</v>
+        <v>5.0619820000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>940.980000</v>
+        <v>940.98</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.763000</v>
+        <v>-102.76300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>18233.569993</v>
+        <v>18233.569993000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.064881</v>
+        <v>5.0648809999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>947.360000</v>
+        <v>947.36</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.853500</v>
+        <v>-87.853499999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>18243.759307</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.067711</v>
+        <v>5.0677110000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>954.291000</v>
+        <v>954.29100000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.478000</v>
+        <v>-76.477999999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>18254.242780</v>
+        <v>18254.24278</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.070623</v>
+        <v>5.0706230000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>958.957000</v>
+        <v>958.95699999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.638700</v>
+        <v>-74.6387</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>18264.415695</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.073449</v>
+        <v>5.0734490000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>966.062000</v>
+        <v>966.06200000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.611800</v>
+        <v>-79.611800000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>18275.191777</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.076442</v>
+        <v>5.0764420000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>974.185000</v>
+        <v>974.18499999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.476000</v>
+        <v>-91.475999999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>18286.215363</v>
+        <v>18286.215362999999</v>
       </c>
       <c r="AU14" s="1">
         <v>5.079504</v>
       </c>
       <c r="AV14" s="1">
-        <v>984.131000</v>
+        <v>984.13099999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.427000</v>
+        <v>-109.42700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>18296.927957</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.082480</v>
+        <v>5.0824800000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>992.447000</v>
+        <v>992.447</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.251000</v>
+        <v>-125.251</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>18307.922773</v>
+        <v>18307.922772999998</v>
       </c>
       <c r="BE14" s="1">
         <v>5.085534</v>
       </c>
       <c r="BF14" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.945000</v>
+        <v>-197.94499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>18319.152694</v>
@@ -3745,1011 +4161,1011 @@
         <v>5.088654</v>
       </c>
       <c r="BK14" s="1">
-        <v>1098.080000</v>
+        <v>1098.08</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.944000</v>
+        <v>-315.94400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>18330.584370</v>
+        <v>18330.58437</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.091829</v>
+        <v>5.0918289999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1206.740000</v>
+        <v>1206.74</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-502.338000</v>
+        <v>-502.33800000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>18341.081321</v>
+        <v>18341.081321000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.094745</v>
+        <v>5.0947449999999996</v>
       </c>
       <c r="BU14" s="1">
-        <v>1328.810000</v>
+        <v>1328.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-707.184000</v>
+        <v>-707.18399999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>18351.986363</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.097774</v>
+        <v>5.0977740000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA14" s="1">
-        <v>-926.211000</v>
+        <v>-926.21100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>18364.029227</v>
+        <v>18364.029226999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.101119</v>
+        <v>5.1011189999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1827.730000</v>
+        <v>1827.73</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1445.960000</v>
+        <v>-1445.96</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>18192.959549</v>
+        <v>18192.959548999999</v>
       </c>
       <c r="B15" s="1">
-        <v>5.053600</v>
+        <v>5.0536000000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>894.230000</v>
+        <v>894.23</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.880000</v>
+        <v>-198.88</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>18203.102241</v>
+        <v>18203.102241000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.056417</v>
+        <v>5.0564169999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>911.339000</v>
+        <v>911.33900000000006</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.119000</v>
+        <v>-168.119</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>18213.189875</v>
       </c>
       <c r="L15" s="1">
-        <v>5.059219</v>
+        <v>5.0592189999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>934.544000</v>
+        <v>934.54399999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.950000</v>
+        <v>-118.95</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>18223.426973</v>
+        <v>18223.426973000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.062063</v>
+        <v>5.0620630000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>940.980000</v>
+        <v>940.98</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.757000</v>
+        <v>-102.75700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>18233.913255</v>
+        <v>18233.913254999999</v>
       </c>
       <c r="V15" s="1">
-        <v>5.064976</v>
+        <v>5.0649759999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>947.313000</v>
+        <v>947.31299999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.886000</v>
+        <v>-87.885999999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>18244.109514</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.067808</v>
+        <v>5.0678080000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>954.303000</v>
+        <v>954.303</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.585500</v>
+        <v>-76.585499999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>18254.587964</v>
+        <v>18254.587963999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.070719</v>
+        <v>5.0707190000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>958.931000</v>
+        <v>958.93100000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.572200</v>
+        <v>-74.572199999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>18265.114064</v>
+        <v>18265.114064000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.073643</v>
+        <v>5.0736429999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>966.079000</v>
+        <v>966.07899999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.642800</v>
+        <v>-79.642799999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>18275.914490</v>
+        <v>18275.914489999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.076643</v>
+        <v>5.0766429999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>974.191000</v>
+        <v>974.19100000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.476800</v>
+        <v>-91.476799999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>18286.597778</v>
+        <v>18286.597777999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.079610</v>
+        <v>5.0796099999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>984.122000</v>
+        <v>984.12199999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.415000</v>
+        <v>-109.41500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>18297.287557</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.082580</v>
+        <v>5.0825800000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>992.440000</v>
+        <v>992.44</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.242000</v>
+        <v>-125.242</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>18308.282869</v>
+        <v>18308.282868999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.085634</v>
+        <v>5.0856339999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.911000</v>
+        <v>-197.911</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>18319.821301</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.088839</v>
+        <v>5.0888390000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1098.140000</v>
+        <v>1098.1400000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.907000</v>
+        <v>-315.90699999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>18330.695096</v>
+        <v>18330.695095999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.091860</v>
+        <v>5.0918599999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-502.338000</v>
+        <v>-502.33800000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>18341.221193</v>
+        <v>18341.221193000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.094784</v>
+        <v>5.0947839999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1328.820000</v>
+        <v>1328.82</v>
       </c>
       <c r="BV15" s="1">
-        <v>-707.151000</v>
+        <v>-707.15099999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>18352.407466</v>
+        <v>18352.407466000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.097891</v>
+        <v>5.0978909999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1466.280000</v>
+        <v>1466.28</v>
       </c>
       <c r="CA15" s="1">
-        <v>-926.142000</v>
+        <v>-926.14200000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>18364.581770</v>
+        <v>18364.581770000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.101273</v>
+        <v>5.1012729999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.770000</v>
+        <v>1828.77</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1446.010000</v>
+        <v>-1446.01</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>18193.381682</v>
+        <v>18193.381681999999</v>
       </c>
       <c r="B16" s="1">
-        <v>5.053717</v>
+        <v>5.0537169999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>894.141000</v>
+        <v>894.14099999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.784000</v>
+        <v>-198.78399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>18203.376031</v>
       </c>
       <c r="G16" s="1">
-        <v>5.056493</v>
+        <v>5.0564929999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>911.974000</v>
+        <v>911.97400000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.151000</v>
+        <v>-168.15100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>18213.535619</v>
+        <v>18213.535618999998</v>
       </c>
       <c r="L16" s="1">
-        <v>5.059315</v>
+        <v>5.0593149999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>934.534000</v>
+        <v>934.53399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.797000</v>
+        <v>-118.797</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>18223.773540</v>
+        <v>18223.773539999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.062159</v>
+        <v>5.0621590000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>941.005000</v>
+        <v>941.005</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.720000</v>
+        <v>-102.72</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>18234.257447</v>
       </c>
       <c r="V16" s="1">
-        <v>5.065072</v>
+        <v>5.0650719999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>947.362000</v>
+        <v>947.36199999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.926500</v>
+        <v>-87.926500000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>18244.805368</v>
+        <v>18244.805368000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.068001</v>
+        <v>5.0680009999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>954.301000</v>
+        <v>954.30100000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.453000</v>
+        <v>-76.453000000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>18255.272939</v>
+        <v>18255.272938999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.070909</v>
+        <v>5.0709090000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>958.924000</v>
+        <v>958.92399999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.578300</v>
+        <v>-74.578299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>18265.461294</v>
+        <v>18265.461294000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.073739</v>
+        <v>5.0737389999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>966.070000</v>
+        <v>966.07</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.629800</v>
+        <v>-79.629800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>18276.264128</v>
+        <v>18276.264127999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.076740</v>
+        <v>5.07674</v>
       </c>
       <c r="AQ16" s="1">
-        <v>974.203000</v>
+        <v>974.20299999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.473400</v>
+        <v>-91.473399999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>18286.961841</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.079712</v>
+        <v>5.0797119999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.441000</v>
+        <v>-109.441</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>18297.945251</v>
+        <v>18297.945251000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.082763</v>
+        <v>5.0827629999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>992.432000</v>
+        <v>992.43200000000002</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.247000</v>
+        <v>-125.247</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>18308.954452</v>
+        <v>18308.954452000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.085821</v>
+        <v>5.0858210000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.913000</v>
+        <v>-197.91300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>18319.935878</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.088871</v>
+        <v>5.0888710000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1098.090000</v>
+        <v>1098.0899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.918000</v>
+        <v>-315.91800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>18331.085479</v>
+        <v>18331.085479000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.091968</v>
+        <v>5.0919679999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-502.335000</v>
+        <v>-502.33499999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>18341.631913</v>
+        <v>18341.631913000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.094898</v>
+        <v>5.0948979999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1328.810000</v>
+        <v>1328.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-707.132000</v>
+        <v>-707.13199999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>18352.833066</v>
+        <v>18352.833065999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.098009</v>
+        <v>5.0980090000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1466.280000</v>
+        <v>1466.28</v>
       </c>
       <c r="CA16" s="1">
-        <v>-926.174000</v>
+        <v>-926.17399999999998</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>18365.112490</v>
+        <v>18365.11249</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.101420</v>
+        <v>5.1014200000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.690000</v>
+        <v>1827.69</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1445.850000</v>
+        <v>-1445.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>18193.659900</v>
+        <v>18193.659899999999</v>
       </c>
       <c r="B17" s="1">
-        <v>5.053794</v>
+        <v>5.0537939999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>894.266000</v>
+        <v>894.26599999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.866000</v>
+        <v>-198.86600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>18203.722239</v>
+        <v>18203.722238999999</v>
       </c>
       <c r="G17" s="1">
-        <v>5.056590</v>
+        <v>5.0565899999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>911.630000</v>
+        <v>911.63</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.716000</v>
+        <v>-167.71600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>18213.881794</v>
+        <v>18213.881794000001</v>
       </c>
       <c r="L17" s="1">
         <v>5.059412</v>
       </c>
       <c r="M17" s="1">
-        <v>934.477000</v>
+        <v>934.47699999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.939000</v>
+        <v>-118.93899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>18224.121700</v>
+        <v>18224.1217</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.062256</v>
+        <v>5.0622559999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>940.997000</v>
+        <v>940.99699999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.789000</v>
+        <v>-102.789</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>18234.945398</v>
       </c>
       <c r="V17" s="1">
-        <v>5.065263</v>
+        <v>5.0652629999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>947.369000</v>
+        <v>947.36900000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.896000</v>
+        <v>-87.896000000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>18245.155544</v>
+        <v>18245.155544000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.068099</v>
+        <v>5.0680990000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>954.327000</v>
+        <v>954.327</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.563600</v>
+        <v>-76.563599999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>18255.617692</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.071005</v>
+        <v>5.0710050000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>958.908000</v>
+        <v>958.90800000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.574400</v>
+        <v>-74.574399999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>18265.811469</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.073837</v>
+        <v>5.0738370000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>966.077000</v>
+        <v>966.077</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.615800</v>
+        <v>-79.615799999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>18276.630176</v>
+        <v>18276.630175999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.076842</v>
+        <v>5.0768420000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>974.197000</v>
+        <v>974.197</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.497400</v>
+        <v>-91.497399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>18287.627970</v>
+        <v>18287.627970000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.079897</v>
+        <v>5.0798969999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>984.116000</v>
+        <v>984.11599999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.420000</v>
+        <v>-109.42</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>18298.429843</v>
+        <v>18298.429843000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>5.082897</v>
       </c>
       <c r="BA17" s="1">
-        <v>992.441000</v>
+        <v>992.44100000000003</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.251000</v>
+        <v>-125.251</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>18309.390435</v>
+        <v>18309.390435000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.085942</v>
+        <v>5.0859420000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1031.220000</v>
+        <v>1031.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.925000</v>
+        <v>-197.92500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>18320.311846</v>
+        <v>18320.311846000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.088976</v>
+        <v>5.0889759999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1098.100000</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.954000</v>
+        <v>-315.95400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>18331.507046</v>
+        <v>18331.507045999999</v>
       </c>
       <c r="BO17" s="1">
         <v>5.092085</v>
       </c>
       <c r="BP17" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-502.355000</v>
+        <v>-502.35500000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>18342.059960</v>
+        <v>18342.059959999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.095017</v>
+        <v>5.0950170000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1328.790000</v>
+        <v>1328.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-707.134000</v>
+        <v>-707.13400000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>18353.251657</v>
+        <v>18353.251657000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.098125</v>
+        <v>5.0981249999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1466.370000</v>
+        <v>1466.37</v>
       </c>
       <c r="CA17" s="1">
-        <v>-926.114000</v>
+        <v>-926.11400000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>18365.627833</v>
+        <v>18365.627832999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.101563</v>
+        <v>5.1015629999999996</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.730000</v>
+        <v>1827.73</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1447.130000</v>
+        <v>-1447.13</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>18194.000708</v>
       </c>
       <c r="B18" s="1">
-        <v>5.053889</v>
+        <v>5.0538889999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>894.134000</v>
+        <v>894.13400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.932000</v>
+        <v>-198.93199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>18204.064478</v>
       </c>
       <c r="G18" s="1">
-        <v>5.056685</v>
+        <v>5.0566849999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>911.762000</v>
+        <v>911.76199999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.558000</v>
+        <v>-167.55799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>18214.576193</v>
+        <v>18214.576193000001</v>
       </c>
       <c r="L18" s="1">
-        <v>5.059604</v>
+        <v>5.0596040000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>934.360000</v>
+        <v>934.36</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.961000</v>
+        <v>-118.961</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>18224.818579</v>
+        <v>18224.818578999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.062450</v>
+        <v>5.0624500000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>940.986000</v>
+        <v>940.98599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.782000</v>
+        <v>-102.782</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>18235.288133</v>
+        <v>18235.288132999998</v>
       </c>
       <c r="V18" s="1">
-        <v>5.065358</v>
+        <v>5.0653579999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>947.385000</v>
+        <v>947.38499999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.894800</v>
+        <v>-87.894800000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>18245.501785</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.068195</v>
+        <v>5.0681950000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>954.354000</v>
+        <v>954.35400000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.466800</v>
+        <v>-76.466800000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>18255.959899</v>
+        <v>18255.959899000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.071100</v>
+        <v>5.0711000000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>958.975000</v>
+        <v>958.97500000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.584400</v>
+        <v>-74.584400000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>18266.470620</v>
+        <v>18266.47062</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.074020</v>
+        <v>5.07402</v>
       </c>
       <c r="AL18" s="1">
-        <v>966.088000</v>
+        <v>966.08799999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.608600</v>
+        <v>-79.608599999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>18277.357806</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.077044</v>
+        <v>5.0770439999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>974.192000</v>
+        <v>974.19200000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.496900</v>
+        <v>-91.496899999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>18288.081808</v>
+        <v>18288.081807999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.080023</v>
+        <v>5.0800229999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>984.130000</v>
+        <v>984.13</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.424000</v>
+        <v>-109.42400000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>18298.789441</v>
+        <v>18298.789441000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.082997</v>
+        <v>5.0829969999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>992.429000</v>
+        <v>992.42899999999997</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.272000</v>
+        <v>-125.27200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>18309.752019</v>
@@ -4758,285 +5174,285 @@
         <v>5.086042</v>
       </c>
       <c r="BF18" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.913000</v>
+        <v>-197.91300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>18320.687814</v>
+        <v>18320.687814000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.089080</v>
+        <v>5.08908</v>
       </c>
       <c r="BK18" s="1">
-        <v>1098.110000</v>
+        <v>1098.1099999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.891000</v>
+        <v>-315.89100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>18331.924213</v>
+        <v>18331.924212999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.092201</v>
+        <v>5.0922010000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-502.325000</v>
+        <v>-502.32499999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>18342.462183</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.095128</v>
+        <v>5.0951279999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1328.850000</v>
+        <v>1328.85</v>
       </c>
       <c r="BV18" s="1">
-        <v>-707.156000</v>
+        <v>-707.15599999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>18353.696600</v>
+        <v>18353.696599999999</v>
       </c>
       <c r="BY18" s="1">
         <v>5.098249</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA18" s="1">
-        <v>-926.191000</v>
+        <v>-926.19100000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>18366.147653</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.101708</v>
+        <v>5.1017080000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.090000</v>
+        <v>1829.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1446.780000</v>
+        <v>-1446.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>18194.685131</v>
+        <v>18194.685130999998</v>
       </c>
       <c r="B19" s="1">
-        <v>5.054079</v>
+        <v>5.0540789999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>894.159000</v>
+        <v>894.15899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.765000</v>
+        <v>-198.76499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>18204.753422</v>
+        <v>18204.753422000002</v>
       </c>
       <c r="G19" s="1">
-        <v>5.056876</v>
+        <v>5.0568759999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>911.652000</v>
+        <v>911.65200000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.729000</v>
+        <v>-167.72900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>18214.919424</v>
       </c>
       <c r="L19" s="1">
-        <v>5.059700</v>
+        <v>5.0597000000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>934.369000</v>
+        <v>934.36900000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.147000</v>
+        <v>-119.14700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>18225.164328</v>
+        <v>18225.164327999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.062546</v>
+        <v>5.0625460000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>940.982000</v>
+        <v>940.98199999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.752000</v>
+        <v>-102.752</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>18235.631365</v>
+        <v>18235.631365000001</v>
       </c>
       <c r="V19" s="1">
-        <v>5.065453</v>
+        <v>5.0654529999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>947.364000</v>
+        <v>947.36400000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.866200</v>
+        <v>-87.866200000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>18246.155479</v>
+        <v>18246.155479000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.068377</v>
+        <v>5.0683769999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>954.313000</v>
+        <v>954.31299999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.597700</v>
+        <v>-76.597700000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>18256.616601</v>
+        <v>18256.616601000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.071282</v>
+        <v>5.0712820000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>958.899000</v>
+        <v>958.899</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.614500</v>
+        <v>-74.614500000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>18266.858027</v>
+        <v>18266.858026999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.074127</v>
+        <v>5.0741269999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>966.102000</v>
+        <v>966.10199999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.640300</v>
+        <v>-79.640299999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>18277.734765</v>
+        <v>18277.734765000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.077149</v>
+        <v>5.0771490000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>974.183000</v>
+        <v>974.18299999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.477900</v>
+        <v>-91.477900000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>18288.453817</v>
+        <v>18288.453817000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.080126</v>
+        <v>5.0801259999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>984.109000</v>
+        <v>984.10900000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.418000</v>
+        <v>-109.41800000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>18299.147089</v>
+        <v>18299.147088999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.083096</v>
+        <v>5.0830960000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>992.428000</v>
+        <v>992.428</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.238000</v>
+        <v>-125.238</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>18310.110658</v>
+        <v>18310.110658000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.086142</v>
+        <v>5.0861419999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1031.220000</v>
+        <v>1031.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.927000</v>
+        <v>-197.92699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>18321.102468</v>
+        <v>18321.102468000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.089195</v>
+        <v>5.0891950000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1098.100000</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.943000</v>
+        <v>-315.94299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>18332.329909</v>
@@ -5045,240 +5461,240 @@
         <v>5.092314</v>
       </c>
       <c r="BP19" s="1">
-        <v>1206.740000</v>
+        <v>1206.74</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-502.315000</v>
+        <v>-502.315</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>18342.889277</v>
+        <v>18342.889276999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.095247</v>
+        <v>5.0952469999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1328.860000</v>
+        <v>1328.86</v>
       </c>
       <c r="BV19" s="1">
-        <v>-707.144000</v>
+        <v>-707.14400000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>18354.118168</v>
+        <v>18354.118168000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.098366</v>
+        <v>5.0983660000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA19" s="1">
-        <v>-926.125000</v>
+        <v>-926.125</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>18366.666952</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.101852</v>
+        <v>5.1018520000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.400000</v>
+        <v>1828.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1447.320000</v>
+        <v>-1447.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>18195.034348</v>
+        <v>18195.034348000001</v>
       </c>
       <c r="B20" s="1">
         <v>5.054176</v>
       </c>
       <c r="C20" s="1">
-        <v>894.085000</v>
+        <v>894.08500000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.899000</v>
+        <v>-198.899</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>18205.100125</v>
+        <v>18205.100125000001</v>
       </c>
       <c r="G20" s="1">
         <v>5.056972</v>
       </c>
       <c r="H20" s="1">
-        <v>911.715000</v>
+        <v>911.71500000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.003000</v>
+        <v>-168.00299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>18215.264641</v>
+        <v>18215.264641000002</v>
       </c>
       <c r="L20" s="1">
-        <v>5.059796</v>
+        <v>5.0597960000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>934.424000</v>
+        <v>934.42399999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.918000</v>
+        <v>-118.91800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>18225.520914</v>
+        <v>18225.520914000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.062645</v>
+        <v>5.0626449999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>940.984000</v>
+        <v>940.98400000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.722000</v>
+        <v>-102.72199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>18236.279637</v>
       </c>
       <c r="V20" s="1">
-        <v>5.065633</v>
+        <v>5.0656330000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>947.226000</v>
+        <v>947.226</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.925800</v>
+        <v>-87.925799999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>18246.547847</v>
+        <v>18246.547847000002</v>
       </c>
       <c r="AA20" s="1">
         <v>5.068486</v>
       </c>
       <c r="AB20" s="1">
-        <v>954.312000</v>
+        <v>954.31200000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.614700</v>
+        <v>-76.614699999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>18256.990585</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.071386</v>
+        <v>5.0713860000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>958.935000</v>
+        <v>958.93499999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.556500</v>
+        <v>-74.5565</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>18267.205693</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.074224</v>
+        <v>5.0742240000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>966.095000</v>
+        <v>966.09500000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.624200</v>
+        <v>-79.624200000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>18278.114205</v>
+        <v>18278.114205000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.077254</v>
+        <v>5.0772539999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>974.186000</v>
+        <v>974.18600000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.475100</v>
+        <v>-91.475099999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>18288.818862</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.080227</v>
+        <v>5.0802269999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>984.106000</v>
+        <v>984.10599999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.436000</v>
+        <v>-109.43600000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>18299.556256</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.083210</v>
+        <v>5.0832100000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>992.432000</v>
+        <v>992.43200000000002</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.258000</v>
+        <v>-125.258</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>18310.590259</v>
+        <v>18310.590259000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.086275</v>
+        <v>5.0862749999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1031.260000</v>
+        <v>1031.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.943000</v>
+        <v>-197.94300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>18321.439779</v>
@@ -5287,195 +5703,195 @@
         <v>5.089289</v>
       </c>
       <c r="BK20" s="1">
-        <v>1098.100000</v>
+        <v>1098.0999999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.893000</v>
+        <v>-315.89299999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>18332.726709</v>
+        <v>18332.726708999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.092424</v>
+        <v>5.0924240000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-502.346000</v>
+        <v>-502.346</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>18343.304390</v>
+        <v>18343.304390000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.095362</v>
+        <v>5.0953619999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1328.850000</v>
+        <v>1328.85</v>
       </c>
       <c r="BV20" s="1">
-        <v>-707.136000</v>
+        <v>-707.13599999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>18354.543241</v>
+        <v>18354.543240999999</v>
       </c>
       <c r="BY20" s="1">
         <v>5.098484</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1466.400000</v>
+        <v>1466.4</v>
       </c>
       <c r="CA20" s="1">
-        <v>-926.117000</v>
+        <v>-926.11699999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>18367.219991</v>
+        <v>18367.219991000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.102006</v>
+        <v>5.1020060000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.700000</v>
+        <v>1827.7</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1446.920000</v>
+        <v>-1446.92</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>18195.375595</v>
+        <v>18195.375595000001</v>
       </c>
       <c r="B21" s="1">
         <v>5.054271</v>
       </c>
       <c r="C21" s="1">
-        <v>894.142000</v>
+        <v>894.14200000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.929000</v>
+        <v>-198.929</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>18205.445164</v>
+        <v>18205.445164000001</v>
       </c>
       <c r="G21" s="1">
-        <v>5.057068</v>
+        <v>5.0570680000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>911.828000</v>
+        <v>911.82799999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.933000</v>
+        <v>-167.93299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>18215.913444</v>
+        <v>18215.913444000002</v>
       </c>
       <c r="L21" s="1">
-        <v>5.059976</v>
+        <v>5.0599759999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>934.637000</v>
+        <v>934.63699999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.027000</v>
+        <v>-119.027</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>18226.178134</v>
+        <v>18226.178134000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.062827</v>
+        <v>5.0628270000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>941.035000</v>
+        <v>941.03499999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.754000</v>
+        <v>-102.754</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>18236.662055</v>
+        <v>18236.662055000001</v>
       </c>
       <c r="V21" s="1">
-        <v>5.065739</v>
+        <v>5.0657389999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>947.374000</v>
+        <v>947.37400000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.878700</v>
+        <v>-87.878699999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>18246.896998</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.068582</v>
+        <v>5.0685820000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>954.246000</v>
+        <v>954.24599999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.542900</v>
+        <v>-76.542900000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>18257.334312</v>
+        <v>18257.334311999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.071482</v>
+        <v>5.0714819999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>958.879000</v>
+        <v>958.87900000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.570600</v>
+        <v>-74.570599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>18267.553914</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.074321</v>
+        <v>5.0743210000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>966.095000</v>
+        <v>966.09500000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.599100</v>
+        <v>-79.599100000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>18278.548733</v>
@@ -5484,28 +5900,28 @@
         <v>5.077375</v>
       </c>
       <c r="AQ21" s="1">
-        <v>974.180000</v>
+        <v>974.18</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.493200</v>
+        <v>-91.493200000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>18289.230542</v>
+        <v>18289.230542000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.080342</v>
+        <v>5.0803419999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>984.122000</v>
+        <v>984.12199999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.445000</v>
+        <v>-109.44499999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>18299.867745</v>
@@ -5514,270 +5930,270 @@
         <v>5.083297</v>
       </c>
       <c r="BA21" s="1">
-        <v>992.428000</v>
+        <v>992.428</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.239000</v>
+        <v>-125.239</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>18310.836806</v>
+        <v>18310.836805999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.086344</v>
+        <v>5.0863440000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.924000</v>
+        <v>-197.92400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>18321.812243</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.089392</v>
+        <v>5.0893920000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1098.120000</v>
+        <v>1098.1199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.954000</v>
+        <v>-315.95400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>18333.148308</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.092541</v>
+        <v>5.0925409999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1206.680000</v>
+        <v>1206.68</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-502.335000</v>
+        <v>-502.33499999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>18343.716183</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.095477</v>
+        <v>5.0954769999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1328.840000</v>
+        <v>1328.84</v>
       </c>
       <c r="BV21" s="1">
-        <v>-707.165000</v>
+        <v>-707.16499999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>18354.989639</v>
+        <v>18354.989638999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.098608</v>
+        <v>5.0986079999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1466.260000</v>
+        <v>1466.26</v>
       </c>
       <c r="CA21" s="1">
-        <v>-926.245000</v>
+        <v>-926.245</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>18367.746750</v>
+        <v>18367.746749999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.102152</v>
+        <v>5.1021520000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.940000</v>
+        <v>1828.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1447.080000</v>
+        <v>-1447.08</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>18196.022345</v>
+        <v>18196.022345000001</v>
       </c>
       <c r="B22" s="1">
-        <v>5.054451</v>
+        <v>5.0544510000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>894.168000</v>
+        <v>894.16800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.826000</v>
+        <v>-198.82599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>18206.094109</v>
+        <v>18206.094109000001</v>
       </c>
       <c r="G22" s="1">
-        <v>5.057248</v>
+        <v>5.0572480000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>911.888000</v>
+        <v>911.88800000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.997000</v>
+        <v>-167.99700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>18216.302271</v>
       </c>
       <c r="L22" s="1">
-        <v>5.060084</v>
+        <v>5.0600839999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>934.512000</v>
+        <v>934.51199999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.782000</v>
+        <v>-118.782</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>18226.577394</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.062938</v>
+        <v>5.0629379999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>941.031000</v>
+        <v>941.03099999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.784000</v>
+        <v>-102.78400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>18237.007304</v>
+        <v>18237.007303999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.065835</v>
+        <v>5.0658349999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>947.446000</v>
+        <v>947.44600000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.870100</v>
+        <v>-87.870099999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>18247.243237</v>
+        <v>18247.243236999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.068679</v>
+        <v>5.0686790000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>954.234000</v>
+        <v>954.23400000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.545500</v>
+        <v>-76.545500000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>18257.678040</v>
+        <v>18257.678039999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.071577</v>
+        <v>5.0715769999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>958.911000</v>
+        <v>958.91099999999994</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.559100</v>
+        <v>-74.559100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>18267.969034</v>
+        <v>18267.969034000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.074436</v>
+        <v>5.0744360000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>966.092000</v>
+        <v>966.09199999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.628700</v>
+        <v>-79.628699999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>18278.835922</v>
+        <v>18278.835921999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.077454</v>
+        <v>5.0774540000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>974.198000</v>
+        <v>974.19799999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.471300</v>
+        <v>-91.471299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>18289.537070</v>
+        <v>18289.537069999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.080427</v>
+        <v>5.0804270000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>984.110000</v>
+        <v>984.11</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.418000</v>
+        <v>-109.41800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>18300.225855</v>
+        <v>18300.225855000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.083396</v>
+        <v>5.0833959999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>992.430000</v>
+        <v>992.43</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.252000</v>
+        <v>-125.252</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>18311.195378</v>
@@ -5786,527 +6202,527 @@
         <v>5.086443</v>
       </c>
       <c r="BF22" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.929000</v>
+        <v>-197.929</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>18322.210054</v>
+        <v>18322.210053999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.089503</v>
+        <v>5.0895029999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1098.110000</v>
+        <v>1098.1099999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.905000</v>
+        <v>-315.90499999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>18333.559987</v>
+        <v>18333.559987000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.092656</v>
+        <v>5.0926559999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-502.325000</v>
+        <v>-502.32499999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>18344.546373</v>
+        <v>18344.546373000001</v>
       </c>
       <c r="BT22" s="1">
         <v>5.095707</v>
       </c>
       <c r="BU22" s="1">
-        <v>1328.850000</v>
+        <v>1328.85</v>
       </c>
       <c r="BV22" s="1">
-        <v>-707.098000</v>
+        <v>-707.09799999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>18355.421158</v>
+        <v>18355.421158000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.098728</v>
+        <v>5.0987280000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA22" s="1">
-        <v>-926.296000</v>
+        <v>-926.29600000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>18368.268037</v>
+        <v>18368.268037000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.102297</v>
+        <v>5.1022970000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.000000</v>
+        <v>1828</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1445.900000</v>
+        <v>-1445.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>18196.399801</v>
       </c>
       <c r="B23" s="1">
-        <v>5.054556</v>
+        <v>5.0545559999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>894.147000</v>
+        <v>894.14700000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.850000</v>
+        <v>-198.85</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>18206.477051</v>
+        <v>18206.477051000002</v>
       </c>
       <c r="G23" s="1">
-        <v>5.057355</v>
+        <v>5.0573550000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>911.814000</v>
+        <v>911.81399999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.761000</v>
+        <v>-167.761</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>18216.647982</v>
+        <v>18216.647981999999</v>
       </c>
       <c r="L23" s="1">
-        <v>5.060180</v>
+        <v>5.0601799999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>934.565000</v>
+        <v>934.56500000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.187000</v>
+        <v>-119.187</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>18226.909713</v>
+        <v>18226.909713000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.063030</v>
+        <v>5.0630300000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>940.996000</v>
+        <v>940.99599999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.772000</v>
+        <v>-102.77200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>18237.355458</v>
+        <v>18237.355458000002</v>
       </c>
       <c r="V23" s="1">
-        <v>5.065932</v>
+        <v>5.0659320000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>947.327000</v>
+        <v>947.327</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.894400</v>
+        <v>-87.894400000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18247.658117</v>
+        <v>18247.658116999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.068794</v>
+        <v>5.0687939999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>954.332000</v>
+        <v>954.33199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.406500</v>
+        <v>-76.406499999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>18258.112566</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.071698</v>
+        <v>5.0716979999999996</v>
       </c>
       <c r="AG23" s="1">
-        <v>958.880000</v>
+        <v>958.88</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.557100</v>
+        <v>-74.557100000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>18268.264189</v>
+        <v>18268.264189000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.074518</v>
+        <v>5.0745180000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>966.089000</v>
+        <v>966.08900000000006</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.630600</v>
+        <v>-79.630600000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>18279.194528</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.077554</v>
+        <v>5.0775540000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>974.204000</v>
+        <v>974.20399999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.485600</v>
+        <v>-91.485600000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>18289.912045</v>
+        <v>18289.912045000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.080531</v>
+        <v>5.0805309999999997</v>
       </c>
       <c r="AV23" s="1">
-        <v>984.122000</v>
+        <v>984.12199999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.435000</v>
+        <v>-109.435</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>18300.583967</v>
+        <v>18300.583966999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.083496</v>
+        <v>5.0834960000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>992.436000</v>
+        <v>992.43600000000004</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.239000</v>
+        <v>-125.239</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>18311.919536</v>
+        <v>18311.919536000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.086644</v>
+        <v>5.0866439999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.927000</v>
+        <v>-197.92699999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>18322.958993</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.089711</v>
+        <v>5.0897110000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1098.070000</v>
+        <v>1098.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.912000</v>
+        <v>-315.91199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>18333.964723</v>
+        <v>18333.964723000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.092768</v>
+        <v>5.0927680000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1206.730000</v>
+        <v>1206.73</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-502.365000</v>
+        <v>-502.36500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>18344.977396</v>
+        <v>18344.977395999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.095827</v>
+        <v>5.0958269999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1328.880000</v>
+        <v>1328.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-707.090000</v>
+        <v>-707.09</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>18355.842758</v>
+        <v>18355.842757999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.098845</v>
+        <v>5.0988449999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1466.530000</v>
+        <v>1466.53</v>
       </c>
       <c r="CA23" s="1">
-        <v>-926.179000</v>
+        <v>-926.17899999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>18369.115700</v>
+        <v>18369.115699999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.102532</v>
+        <v>5.1025320000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.010000</v>
+        <v>1829.01</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1446.630000</v>
+        <v>-1446.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>18196.745016</v>
+        <v>18196.745016000001</v>
       </c>
       <c r="B24" s="1">
-        <v>5.054651</v>
+        <v>5.0546509999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>894.051000</v>
+        <v>894.05100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.597000</v>
+        <v>-198.59700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>18206.820284</v>
+        <v>18206.820284000001</v>
       </c>
       <c r="G24" s="1">
-        <v>5.057450</v>
+        <v>5.0574500000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>911.780000</v>
+        <v>911.78</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.859000</v>
+        <v>-167.85900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>18216.991709</v>
+        <v>18216.991709000002</v>
       </c>
       <c r="L24" s="1">
-        <v>5.060275</v>
+        <v>5.0602749999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>934.406000</v>
+        <v>934.40599999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.872000</v>
+        <v>-118.872</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>18227.481103</v>
+        <v>18227.481102999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.063189</v>
+        <v>5.0631890000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>940.968000</v>
+        <v>940.96799999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.739000</v>
+        <v>-102.739</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>18237.766674</v>
+        <v>18237.766673999999</v>
       </c>
       <c r="V24" s="1">
         <v>5.066046</v>
       </c>
       <c r="W24" s="1">
-        <v>947.330000</v>
+        <v>947.33</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.895800</v>
+        <v>-87.895799999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>18247.945045</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.068874</v>
+        <v>5.0688740000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>954.287000</v>
+        <v>954.28700000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.472600</v>
+        <v>-76.4726</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>18258.387357</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.071774</v>
+        <v>5.0717739999999996</v>
       </c>
       <c r="AG24" s="1">
-        <v>958.946000</v>
+        <v>958.94600000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.561100</v>
+        <v>-74.561099999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>18268.612841</v>
+        <v>18268.612840999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.074615</v>
+        <v>5.0746149999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>966.098000</v>
+        <v>966.09799999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.617900</v>
+        <v>-79.617900000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>18279.556076</v>
+        <v>18279.556076000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.077654</v>
+        <v>5.0776539999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>974.196000</v>
+        <v>974.19600000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.471800</v>
+        <v>-91.471800000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>18290.277598</v>
+        <v>18290.277598000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.080633</v>
+        <v>5.0806329999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>984.125000</v>
+        <v>984.125</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.425000</v>
+        <v>-109.425</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>18301.300686</v>
+        <v>18301.300685999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.083695</v>
+        <v>5.0836949999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>992.410000</v>
+        <v>992.41</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.254000</v>
+        <v>-125.254</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>18312.305919</v>
+        <v>18312.305918999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.086752</v>
+        <v>5.0867519999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1031.240000</v>
+        <v>1031.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.955000</v>
+        <v>-197.95500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>18323.363265</v>
@@ -6315,362 +6731,362 @@
         <v>5.089823</v>
       </c>
       <c r="BK24" s="1">
-        <v>1098.140000</v>
+        <v>1098.1400000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.924000</v>
+        <v>-315.92399999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>18334.359042</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.092878</v>
+        <v>5.0928779999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-502.345000</v>
+        <v>-502.34500000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>18345.696627</v>
+        <v>18345.696627000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.096027</v>
+        <v>5.0960270000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="BV24" s="1">
-        <v>-707.108000</v>
+        <v>-707.10799999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>18356.572373</v>
+        <v>18356.572372999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.099048</v>
+        <v>5.0990479999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1466.370000</v>
+        <v>1466.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-926.064000</v>
+        <v>-926.06399999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>18369.344853</v>
+        <v>18369.344852999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.102596</v>
+        <v>5.1025960000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.910000</v>
+        <v>1828.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1446.550000</v>
+        <v>-1446.55</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>18197.083816</v>
+        <v>18197.083815999998</v>
       </c>
       <c r="B25" s="1">
-        <v>5.054746</v>
+        <v>5.0547459999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>894.129000</v>
+        <v>894.12900000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.710000</v>
+        <v>-198.71</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>18207.165466</v>
+        <v>18207.165465999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.057546</v>
+        <v>5.0575460000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>911.785000</v>
+        <v>911.78499999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.216000</v>
+        <v>-168.21600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>18217.405869</v>
+        <v>18217.405868999998</v>
       </c>
       <c r="L25" s="1">
-        <v>5.060391</v>
+        <v>5.0603910000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>934.488000</v>
+        <v>934.48800000000006</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.074000</v>
+        <v>-119.074</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>18227.608079</v>
+        <v>18227.608079000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.063224</v>
+        <v>5.0632239999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>940.979000</v>
+        <v>940.97900000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>18238.059048</v>
+        <v>18238.059047999999</v>
       </c>
       <c r="V25" s="1">
         <v>5.066128</v>
       </c>
       <c r="W25" s="1">
-        <v>947.319000</v>
+        <v>947.31899999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.872300</v>
+        <v>-87.872299999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>18248.288772</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.068969</v>
+        <v>5.0689690000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>954.258000</v>
+        <v>954.25800000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.549900</v>
+        <v>-76.549899999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>18258.733528</v>
+        <v>18258.733528000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.071870</v>
+        <v>5.0718699999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>958.886000</v>
+        <v>958.88599999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.583000</v>
+        <v>-74.582999999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>18268.960537</v>
+        <v>18268.960536999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.074711</v>
+        <v>5.0747109999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>966.095000</v>
+        <v>966.09500000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.615200</v>
+        <v>-79.615200000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>18280.276762</v>
+        <v>18280.276762000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.077855</v>
+        <v>5.0778549999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>974.214000</v>
+        <v>974.21400000000006</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.473900</v>
+        <v>-91.4739</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>18291.005229</v>
+        <v>18291.005228999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.080835</v>
+        <v>5.0808350000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>984.140000</v>
+        <v>984.14</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.428000</v>
+        <v>-109.428</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>18301.662269</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.083795</v>
+        <v>5.0837950000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>992.440000</v>
+        <v>992.44</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.246000</v>
+        <v>-125.246</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>18312.669982</v>
+        <v>18312.669981999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.086853</v>
+        <v>5.0868529999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.909000</v>
+        <v>-197.90899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>18323.740225</v>
+        <v>18323.740225000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.089928</v>
+        <v>5.0899279999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1098.070000</v>
+        <v>1098.07</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.966000</v>
+        <v>-315.96600000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>18335.086706</v>
+        <v>18335.086705999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.093080</v>
+        <v>5.0930799999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-502.349000</v>
+        <v>-502.34899999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>18345.805715</v>
+        <v>18345.805714999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.096057</v>
+        <v>5.0960570000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="BV25" s="1">
-        <v>-707.127000</v>
+        <v>-707.12699999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>18356.689429</v>
+        <v>18356.689428999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.099080</v>
+        <v>5.0990799999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1466.370000</v>
+        <v>1466.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-926.061000</v>
+        <v>-926.06100000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>18369.864691</v>
+        <v>18369.864690999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.102740</v>
+        <v>5.1027399999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1445.550000</v>
+        <v>-1445.55</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>18197.505383</v>
       </c>
       <c r="B26" s="1">
-        <v>5.054863</v>
+        <v>5.0548630000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>894.069000</v>
+        <v>894.06899999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.817000</v>
+        <v>-198.81700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>18207.584090</v>
+        <v>18207.58409</v>
       </c>
       <c r="G26" s="1">
-        <v>5.057662</v>
+        <v>5.0576619999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>911.350000</v>
+        <v>911.35</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.849000</v>
+        <v>-167.84899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>18217.702018</v>
@@ -6679,225 +7095,226 @@
         <v>5.060473</v>
       </c>
       <c r="M26" s="1">
-        <v>934.479000</v>
+        <v>934.47900000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.745000</v>
+        <v>-118.745</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>18227.956767</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.063321</v>
+        <v>5.0633210000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>940.972000</v>
+        <v>940.97199999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.726000</v>
+        <v>-102.726</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>18238.402514</v>
+        <v>18238.402514000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.066223</v>
+        <v>5.0662229999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>947.301000</v>
+        <v>947.30100000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.892200</v>
+        <v>-87.892200000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>18248.643412</v>
+        <v>18248.643412000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.069068</v>
+        <v>5.0690679999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>954.304000</v>
+        <v>954.30399999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.537800</v>
+        <v>-76.537800000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>18259.081222</v>
+        <v>18259.081222000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.071967</v>
+        <v>5.0719669999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>958.853000</v>
+        <v>958.85299999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.529200</v>
+        <v>-74.529200000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>18269.658941</v>
+        <v>18269.658941000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.074905</v>
+        <v>5.0749050000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>966.072000</v>
+        <v>966.072</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.620700</v>
+        <v>-79.620699999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>18280.634377</v>
+        <v>18280.634376999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.077954</v>
+        <v>5.0779540000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>974.194000</v>
+        <v>974.19399999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.472300</v>
+        <v>-91.472300000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>18291.395083</v>
+        <v>18291.395082999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.080943</v>
+        <v>5.0809430000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>984.111000</v>
+        <v>984.11099999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.408000</v>
+        <v>-109.408</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>18302.018895</v>
+        <v>18302.018895000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.083894</v>
+        <v>5.0838939999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>992.435000</v>
+        <v>992.43499999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.252000</v>
+        <v>-125.252</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>18313.336110</v>
+        <v>18313.33611</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.087038</v>
+        <v>5.0870379999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1031.230000</v>
+        <v>1031.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.934000</v>
+        <v>-197.934</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>18324.427648</v>
+        <v>18324.427648000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.090119</v>
+        <v>5.0901189999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1098.110000</v>
+        <v>1098.1099999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.911000</v>
+        <v>-315.911</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>18335.203233</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.093112</v>
+        <v>5.0931119999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1206.730000</v>
+        <v>1206.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-502.318000</v>
+        <v>-502.31799999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>18346.243186</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.096179</v>
+        <v>5.0961790000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1328.860000</v>
+        <v>1328.86</v>
       </c>
       <c r="BV26" s="1">
-        <v>-707.069000</v>
+        <v>-707.06899999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>18357.137321</v>
+        <v>18357.137320999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.099205</v>
+        <v>5.0992050000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1466.340000</v>
+        <v>1466.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-926.228000</v>
+        <v>-926.22799999999995</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>18370.382483</v>
+        <v>18370.382483000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.102884</v>
+        <v>5.1028840000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1827.390000</v>
+        <v>1827.39</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1446.640000</v>
+        <v>-1446.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>